--- a/biology/Zoologie/Camarodonta/Camarodonta.xlsx
+++ b/biology/Zoologie/Camarodonta/Camarodonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Camarodonta sont un ordre d'oursins (échinodermes), comprenant une vaste partie des oursins littoraux des zones tropicale et tempérées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ordre n'est pas reconnu dans toutes les classifications, et ITIS par exemple lui préfère l'ordre des Echinoida.
 </t>
@@ -542,15 +556,17 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre est défini sur la base de la forme des dents et de la lanterne d'Aristote (mâchoire) des oursins, de type dit « camarodonte ». Ce critère de classification n'est pas considéré comme valide par certains organismes de taxinomie, qui considèrent donc cet ordre comme paraphylétique ; cela empêche surtout d'y assigner des fossiles, dont la bouche est souvent absente[1].
-Caractéristiques des espèces de l'ordre des Camarodonta d'après l'Echinoid Directory du Natural History Museum[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est défini sur la base de la forme des dents et de la lanterne d'Aristote (mâchoire) des oursins, de type dit « camarodonte ». Ce critère de classification n'est pas considéré comme valide par certains organismes de taxinomie, qui considèrent donc cet ordre comme paraphylétique ; cela empêche surtout d'y assigner des fossiles, dont la bouche est souvent absente.
+Caractéristiques des espèces de l'ordre des Camarodonta d'après l'Echinoid Directory du Natural History Museum : 
 ce sont des oursins réguliers (ronds à symétrie radiale, avec la bouche au centre de la face orale et l'anus à l'opposé, au sommet de l'apex aboral) ;
 leur lanterne d'Aristote est munie de cinq dents camarodontes, avec des épiphyses qui se rejoignent au-dessus du foramen magnum ;
 leurs pores sont uniformes tout le long des méridiens, et sans phyllodes sur la face orale ;
-leurs tubercules (sur lesquels s'insèrent les radioles) sont de type non perforé[1].
-Cet ordre semble être apparu au Crétacé (Aptien ou Albien)[1].
+leurs tubercules (sur lesquels s'insèrent les radioles) sont de type non perforé.
+Cet ordre semble être apparu au Crétacé (Aptien ou Albien).
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Liste des infra-ordres et familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (28 octobre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (28 octobre 2013) :
 Infra-ordre Echinidea (Kroh &amp; Smith, 2010)
 Famille Echinidae (Gray, 1825) -- 5 genres et 1 fossile
 Super-famille Odontophora (Kroh &amp; Smith, 2010)
@@ -633,7 +651,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Robert Tracy Jackson, Phylogeny of the Echini, with a revision of Palaeozoic species, Boston, Inconnu, 1912, 491 p. (OCLC 1228642, LCCN 12011235, DOI 10.5962/BHL.TITLE.4630, lire en ligne)</t>
         </is>
